--- a/AliCloud/Sysbench_AliPG15_8C32G.xlsx
+++ b/AliCloud/Sysbench_AliPG15_8C32G.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/demai/work/sysbenchCloudDB/AliCloud/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01EDC0F-2A45-5746-9D1B-A5444E500D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1E48B2-E2B9-AF49-9BD4-383D89EC2931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17380" yWindow="500" windowWidth="25020" windowHeight="19400" xr2:uid="{1C006222-4FFB-AD41-A2F8-DEE8063218B2}"/>
+    <workbookView xWindow="13380" yWindow="500" windowWidth="25020" windowHeight="19400" xr2:uid="{1C006222-4FFB-AD41-A2F8-DEE8063218B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2917,7 +2917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A7D2C7-6C6F-7146-830A-4360D5AD83F5}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
